--- a/estadisticas-100-anios-bcrp.xlsx
+++ b/estadisticas-100-anios-bcrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/ivan_aldave_bcrp_gob_pe/Documents/BCRP/Series historicas/Series/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4124a76d3793925/Escritorio/Fundamentos de programación de Python/Tareas/proyecto-final-pf-arce-y-mundaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{020563C2-1430-4278-963D-2AD5688E52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64653FBA-0CFE-4105-B829-E93E9BA2443E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{020563C2-1430-4278-963D-2AD5688E52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B4AA1E-0182-4D98-894B-482CE01C15DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F056D33B-98A0-49C0-8EB4-650B8FD7CDA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F056D33B-98A0-49C0-8EB4-650B8FD7CDA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -748,7 +748,9 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CA5D2479-CAC3-4264-9402-5026147C04B5}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8F432B95-CFB4-4607-B7C9-E594F54D7B14}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -761,9 +763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -907,7 +909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,55 +1065,55 @@
       <selection activeCell="CE1" sqref="CE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="10.140625" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="10.109375" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.109375" customWidth="1"/>
     <col min="34" max="43" width="13" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
     <col min="45" max="52" width="13" customWidth="1"/>
-    <col min="53" max="53" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="10.5703125" customWidth="1"/>
-    <col min="63" max="71" width="12.28515625" customWidth="1"/>
+    <col min="53" max="53" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="10.5546875" customWidth="1"/>
+    <col min="63" max="71" width="12.33203125" customWidth="1"/>
     <col min="72" max="72" width="13" customWidth="1"/>
-    <col min="73" max="73" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="74" max="79" width="12" customWidth="1"/>
-    <col min="80" max="80" width="15.42578125" customWidth="1"/>
+    <col min="80" max="80" width="15.44140625" customWidth="1"/>
     <col min="81" max="81" width="12" customWidth="1"/>
     <col min="82" max="82" width="13" customWidth="1"/>
-    <col min="83" max="83" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15" customWidth="1"/>
-    <col min="97" max="97" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="102" width="11.7109375" customWidth="1"/>
-    <col min="103" max="103" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="13.140625" customWidth="1"/>
-    <col min="106" max="106" width="13.140625" customWidth="1"/>
-    <col min="108" max="108" width="13.5703125" customWidth="1"/>
-    <col min="112" max="112" width="12.42578125" customWidth="1"/>
-    <col min="115" max="115" width="13.140625" customWidth="1"/>
-    <col min="126" max="126" width="12.42578125" customWidth="1"/>
-    <col min="129" max="129" width="13.140625" customWidth="1"/>
-    <col min="135" max="136" width="13.5703125" customWidth="1"/>
-    <col min="138" max="138" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="12.42578125" customWidth="1"/>
+    <col min="97" max="97" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="98" max="102" width="11.6640625" customWidth="1"/>
+    <col min="103" max="103" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.109375" customWidth="1"/>
+    <col min="106" max="106" width="13.109375" customWidth="1"/>
+    <col min="108" max="108" width="13.5546875" customWidth="1"/>
+    <col min="112" max="112" width="12.44140625" customWidth="1"/>
+    <col min="115" max="115" width="13.109375" customWidth="1"/>
+    <col min="126" max="126" width="12.44140625" customWidth="1"/>
+    <col min="129" max="129" width="13.109375" customWidth="1"/>
+    <col min="135" max="136" width="13.5546875" customWidth="1"/>
+    <col min="138" max="138" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.44140625" customWidth="1"/>
     <col min="145" max="145" width="13" customWidth="1"/>
-    <col min="176" max="176" width="12.42578125" customWidth="1"/>
+    <col min="176" max="176" width="12.44140625" customWidth="1"/>
     <col min="179" max="179" width="13" customWidth="1"/>
-    <col min="185" max="186" width="13.5703125" customWidth="1"/>
-    <col min="188" max="188" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="213" width="14.140625" customWidth="1"/>
-    <col min="215" max="215" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="216" max="223" width="9.7109375" customWidth="1"/>
-    <col min="246" max="246" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="186" width="13.5546875" customWidth="1"/>
+    <col min="188" max="188" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="207" max="213" width="14.109375" customWidth="1"/>
+    <col min="215" max="215" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="216" max="223" width="9.6640625" customWidth="1"/>
+    <col min="246" max="246" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1378,7 +1380,7 @@
       <c r="IO1" s="3"/>
       <c r="IP1" s="3"/>
     </row>
-    <row r="2" spans="1:260" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>14</v>
@@ -2074,7 +2076,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>137</v>
@@ -2748,7 +2750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1922</v>
       </c>
@@ -3158,7 +3160,7 @@
       <c r="IY4" s="15"/>
       <c r="IZ4" s="15"/>
     </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1923</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1924</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1925</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1926</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1927</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1928</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1929</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1930</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1931</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1932</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1933</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1934</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="17" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1935</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="18" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1936</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="19" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1937</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="20" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1938</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="21" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1939</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="22" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1940</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="23" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1941</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="24" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1942</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="25" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1943</v>
       </c>
@@ -12286,7 +12288,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="26" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1944</v>
       </c>
@@ -12726,7 +12728,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="27" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1945</v>
       </c>
@@ -13166,7 +13168,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="28" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1946</v>
       </c>
@@ -13606,7 +13608,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="29" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1947</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="30" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1948</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="31" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1949</v>
       </c>
@@ -14926,7 +14928,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="32" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1950</v>
       </c>
@@ -15372,7 +15374,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="33" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1951</v>
       </c>
@@ -15822,7 +15824,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="34" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1952</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="35" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1953</v>
       </c>
@@ -16722,7 +16724,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="36" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1954</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="37" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1955</v>
       </c>
@@ -17624,7 +17626,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="38" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1956</v>
       </c>
@@ -18076,7 +18078,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="39" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1957</v>
       </c>
@@ -18528,7 +18530,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="40" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1958</v>
       </c>
@@ -18978,7 +18980,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="41" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -19656,7 +19658,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="42" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -20338,7 +20340,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="43" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1961</v>
       </c>
@@ -21020,7 +21022,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="44" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1962</v>
       </c>
@@ -21704,7 +21706,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="45" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1963</v>
       </c>
@@ -22388,7 +22390,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="46" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1964</v>
       </c>
@@ -23072,7 +23074,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="47" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1965</v>
       </c>
@@ -23764,7 +23766,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="48" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1966</v>
       </c>
@@ -24456,7 +24458,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="49" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1967</v>
       </c>
@@ -25148,7 +25150,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="50" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1968</v>
       </c>
@@ -25840,7 +25842,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="51" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1969</v>
       </c>
@@ -26532,7 +26534,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="52" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1970</v>
       </c>
@@ -27240,7 +27242,7 @@
         <v>-0.85840930711247287</v>
       </c>
     </row>
-    <row r="53" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1971</v>
       </c>
@@ -27950,7 +27952,7 @@
         <v>-1.4806979204879227</v>
       </c>
     </row>
-    <row r="54" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1972</v>
       </c>
@@ -28660,7 +28662,7 @@
         <v>-2.9481807061863519</v>
       </c>
     </row>
-    <row r="55" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1973</v>
       </c>
@@ -29370,7 +29372,7 @@
         <v>-4.6343155747427529</v>
       </c>
     </row>
-    <row r="56" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1974</v>
       </c>
@@ -30080,7 +30082,7 @@
         <v>-6.9806253322396756</v>
       </c>
     </row>
-    <row r="57" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1975</v>
       </c>
@@ -30790,7 +30792,7 @@
         <v>-9.7913030353969521</v>
       </c>
     </row>
-    <row r="58" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1976</v>
       </c>
@@ -31500,7 +31502,7 @@
         <v>-10.538469932712838</v>
       </c>
     </row>
-    <row r="59" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1977</v>
       </c>
@@ -32210,7 +32212,7 @@
         <v>-10.166832873760617</v>
       </c>
     </row>
-    <row r="60" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1978</v>
       </c>
@@ -32920,7 +32922,7 @@
         <v>-6.3570435681239879</v>
       </c>
     </row>
-    <row r="61" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1979</v>
       </c>
@@ -33630,7 +33632,7 @@
         <v>-1.0949856146800041</v>
       </c>
     </row>
-    <row r="62" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1980</v>
       </c>
@@ -34340,7 +34342,7 @@
         <v>-4.6413614556337563</v>
       </c>
     </row>
-    <row r="63" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1981</v>
       </c>
@@ -35050,7 +35052,7 @@
         <v>-8.0496307939807483</v>
       </c>
     </row>
-    <row r="64" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1982</v>
       </c>
@@ -35760,7 +35762,7 @@
         <v>-8.8886454742080883</v>
       </c>
     </row>
-    <row r="65" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1983</v>
       </c>
@@ -36472,7 +36474,7 @@
         <v>-11.628644238228349</v>
       </c>
     </row>
-    <row r="66" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1984</v>
       </c>
@@ -37186,7 +37188,7 @@
         <v>-7.8672387362142171</v>
       </c>
     </row>
-    <row r="67" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1985</v>
       </c>
@@ -37900,7 +37902,7 @@
         <v>-3.6964130295808637</v>
       </c>
     </row>
-    <row r="68" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1986</v>
       </c>
@@ -38616,7 +38618,7 @@
         <v>-7.7759323851715854</v>
       </c>
     </row>
-    <row r="69" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1987</v>
       </c>
@@ -39332,7 +39334,7 @@
         <v>-10.149342244443222</v>
       </c>
     </row>
-    <row r="70" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1988</v>
       </c>
@@ -40048,7 +40050,7 @@
         <v>-11.548725354371333</v>
       </c>
     </row>
-    <row r="71" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1989</v>
       </c>
@@ -40768,7 +40770,7 @@
         <v>-11.298822678730803</v>
       </c>
     </row>
-    <row r="72" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1990</v>
       </c>
@@ -41490,7 +41492,7 @@
         <v>-8.9315470525193348</v>
       </c>
     </row>
-    <row r="73" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1991</v>
       </c>
@@ -42212,7 +42214,7 @@
         <v>-2.921387131097875</v>
       </c>
     </row>
-    <row r="74" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1992</v>
       </c>
@@ -42934,7 +42936,7 @@
         <v>-3.9885651152997301</v>
       </c>
     </row>
-    <row r="75" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1993</v>
       </c>
@@ -43656,7 +43658,7 @@
         <v>-3.1338685380548319</v>
       </c>
     </row>
-    <row r="76" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1994</v>
       </c>
@@ -44378,7 +44380,7 @@
         <v>-2.9123517430815729</v>
       </c>
     </row>
-    <row r="77" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1995</v>
       </c>
@@ -45100,7 +45102,7 @@
         <v>-3.3684494040105109</v>
       </c>
     </row>
-    <row r="78" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1996</v>
       </c>
@@ -45822,7 +45824,7 @@
         <v>-1.1355521647229658</v>
       </c>
     </row>
-    <row r="79" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1997</v>
       </c>
@@ -46544,7 +46546,7 @@
         <v>6.7740855376756476E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1998</v>
       </c>
@@ -47266,7 +47268,7 @@
         <v>-1.0380399522835786</v>
       </c>
     </row>
-    <row r="81" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1999</v>
       </c>
@@ -47988,7 +47990,7 @@
         <v>-3.4131187655889925</v>
       </c>
     </row>
-    <row r="82" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2000</v>
       </c>
@@ -48710,7 +48712,7 @@
         <v>-3.4301267084033027</v>
       </c>
     </row>
-    <row r="83" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2001</v>
       </c>
@@ -49432,7 +49434,7 @@
         <v>-2.8210339361979888</v>
       </c>
     </row>
-    <row r="84" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2002</v>
       </c>
@@ -50154,7 +50156,7 @@
         <v>-2.3130106957643339</v>
       </c>
     </row>
-    <row r="85" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2003</v>
       </c>
@@ -50876,7 +50878,7 @@
         <v>-1.7535507407503061</v>
       </c>
     </row>
-    <row r="86" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2004</v>
       </c>
@@ -51598,7 +51600,7 @@
         <v>-1.1332905162353712</v>
       </c>
     </row>
-    <row r="87" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2005</v>
       </c>
@@ -52320,7 +52322,7 @@
         <v>-0.35545606552201692</v>
       </c>
     </row>
-    <row r="88" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2006</v>
       </c>
@@ -53042,7 +53044,7 @@
         <v>2.4662206688956063</v>
       </c>
     </row>
-    <row r="89" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2007</v>
       </c>
@@ -53764,7 +53766,7 @@
         <v>3.0650127091923096</v>
       </c>
     </row>
-    <row r="90" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2008</v>
       </c>
@@ -54486,7 +54488,7 @@
         <v>2.5186269287989211</v>
       </c>
     </row>
-    <row r="91" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2009</v>
       </c>
@@ -55208,7 +55210,7 @@
         <v>-1.29115311163402</v>
       </c>
     </row>
-    <row r="92" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2010</v>
       </c>
@@ -55930,7 +55932,7 @@
         <v>-0.17557933882113153</v>
       </c>
     </row>
-    <row r="93" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2011</v>
       </c>
@@ -56652,7 +56654,7 @@
         <v>2.077449235159273</v>
       </c>
     </row>
-    <row r="94" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2012</v>
       </c>
@@ -57374,7 +57376,7 @@
         <v>2.2722768606113979</v>
       </c>
     </row>
-    <row r="95" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2013</v>
       </c>
@@ -58096,7 +58098,7 @@
         <v>0.88631243683919658</v>
       </c>
     </row>
-    <row r="96" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2014</v>
       </c>
@@ -58818,7 +58820,7 @@
         <v>-0.25322976522177326</v>
       </c>
     </row>
-    <row r="97" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2015</v>
       </c>
@@ -59540,7 +59542,7 @@
         <v>-1.9401114466924254</v>
       </c>
     </row>
-    <row r="98" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -60262,7 +60264,7 @@
         <v>-2.3580794697221954</v>
       </c>
     </row>
-    <row r="99" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2017</v>
       </c>
@@ -60984,7 +60986,7 @@
         <v>-3.0004026498109604</v>
       </c>
     </row>
-    <row r="100" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -61706,7 +61708,7 @@
         <v>-2.2937700489276116</v>
       </c>
     </row>
-    <row r="101" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -62428,7 +62430,7 @@
         <v>-1.6195603822663285</v>
       </c>
     </row>
-    <row r="102" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -63150,7 +63152,7 @@
         <v>-8.8640802911525842</v>
       </c>
     </row>
-    <row r="103" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>2021</v>
       </c>
@@ -63872,12 +63874,12 @@
         <v>-2.5418158748836097</v>
       </c>
     </row>
-    <row r="104" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:250" x14ac:dyDescent="0.3">
       <c r="AC104" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:250" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:250" x14ac:dyDescent="0.3">
       <c r="AC105" t="s">
         <v>171</v>
       </c>
